--- a/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CAC" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 CAC  0-1-80-160 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC</a:t>
+              <a:t>Izoterma adsorpcji probki CAC z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 CAC  0-1-80-160 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 CAC  0-1-80-160 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,325 +1292,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0115</v>
+        <v>0.9833</v>
       </c>
       <c r="B3" s="0">
-        <v>93.1025</v>
+        <v>152.1667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0095</v>
+        <v>0.95</v>
       </c>
       <c r="B4" s="0">
-        <v>88.0223</v>
+        <v>146.0876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0309</v>
+        <v>0.9</v>
       </c>
       <c r="B5" s="0">
-        <v>103.6444</v>
+        <v>144.2371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0186</v>
+        <v>0.8479</v>
       </c>
       <c r="B6" s="0">
-        <v>97.643</v>
+        <v>143.0054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.025</v>
+        <v>0.8</v>
       </c>
       <c r="B7" s="0">
-        <v>100.3524</v>
+        <v>142.3918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0469</v>
+        <v>0.749</v>
       </c>
       <c r="B8" s="0">
-        <v>109.2628</v>
+        <v>141.8816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0655</v>
+        <v>0.7021</v>
       </c>
       <c r="B9" s="0">
-        <v>112.6916</v>
+        <v>141.474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0826</v>
+        <v>0.651</v>
       </c>
       <c r="B10" s="0">
-        <v>115.2541</v>
+        <v>140.9638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0997</v>
+        <v>0.6021</v>
       </c>
       <c r="B11" s="0">
-        <v>118.4131</v>
+        <v>140.4534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1242</v>
+        <v>0.549</v>
       </c>
       <c r="B12" s="0">
-        <v>121.4205</v>
+        <v>139.9434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1498</v>
+        <v>0.501</v>
       </c>
       <c r="B13" s="0">
-        <v>124.5454</v>
+        <v>139.0205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1765</v>
+        <v>0.45</v>
       </c>
       <c r="B14" s="0">
-        <v>126.8162</v>
+        <v>138.201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2032</v>
+        <v>0.401</v>
       </c>
       <c r="B15" s="0">
-        <v>128.9602</v>
+        <v>137.0721</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2328</v>
+        <v>0.35</v>
       </c>
       <c r="B16" s="0">
-        <v>130.7341</v>
+        <v>135.7371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.263</v>
+        <v>0.3</v>
       </c>
       <c r="B17" s="0">
-        <v>132.0873</v>
+        <v>133.9897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2933</v>
+        <v>0.2479</v>
       </c>
       <c r="B18" s="0">
-        <v>133.6436</v>
+        <v>131.6239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3225</v>
+        <v>0.199</v>
       </c>
       <c r="B19" s="0">
-        <v>134.7425</v>
+        <v>128.8455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3507</v>
+        <v>0.15</v>
       </c>
       <c r="B20" s="0">
-        <v>135.6106</v>
+        <v>124.5206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3821</v>
+        <v>0.099</v>
       </c>
       <c r="B21" s="0">
-        <v>136.6477</v>
+        <v>118.4434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4119</v>
+        <v>0.05</v>
       </c>
       <c r="B22" s="0">
-        <v>137.1705</v>
+        <v>109.1701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4427</v>
+        <v>0.0292</v>
       </c>
       <c r="B23" s="0">
-        <v>137.9897</v>
+        <v>103.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4715</v>
+        <v>0.0094</v>
       </c>
       <c r="B24" s="0">
-        <v>138.5106</v>
+        <v>92.8856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5008</v>
+        <v>0.0073</v>
       </c>
       <c r="B25" s="0">
-        <v>139.1857</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5315</v>
-      </c>
-      <c r="B26" s="0">
-        <v>139.7268</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5614</v>
-      </c>
-      <c r="B27" s="0">
-        <v>140.0161</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5926</v>
-      </c>
-      <c r="B28" s="0">
-        <v>140.4426</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6213</v>
-      </c>
-      <c r="B29" s="0">
-        <v>140.7172</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6502</v>
-      </c>
-      <c r="B30" s="0">
-        <v>141.0952</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6804</v>
-      </c>
-      <c r="B31" s="0">
-        <v>141.4278</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7103</v>
-      </c>
-      <c r="B32" s="0">
-        <v>141.6007</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7425</v>
-      </c>
-      <c r="B33" s="0">
-        <v>141.9458</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7691</v>
-      </c>
-      <c r="B34" s="0">
-        <v>142.2378</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7985</v>
-      </c>
-      <c r="B35" s="0">
-        <v>142.5718</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8302</v>
-      </c>
-      <c r="B36" s="0">
-        <v>142.9204</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8601</v>
-      </c>
-      <c r="B37" s="0">
-        <v>143.2503</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8906</v>
-      </c>
-      <c r="B38" s="0">
-        <v>144.0431</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9207</v>
-      </c>
-      <c r="B39" s="0">
-        <v>145.0471</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9514</v>
-      </c>
-      <c r="B40" s="0">
-        <v>146.8367</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9763</v>
-      </c>
-      <c r="B41" s="0">
-        <v>151.2387</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9926</v>
-      </c>
-      <c r="B42" s="0">
-        <v>152.6053</v>
-      </c>
-    </row>
-    <row r="43"/>
+        <v>87.7312</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
@@ -5,22 +5,34 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 CAC  0-1-80-160 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 CAC  0&amp;1&amp;80&amp;160 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>CAC</t>
+    <t>A-CAC-b</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>M-CAC-c</t>
+  </si>
+  <si>
+    <t>MA-CAC-d</t>
+  </si>
+  <si>
+    <t>CAC</t>
   </si>
 </sst>
 </file>
@@ -65,6 +77,948 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki A-CAC-b z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki M-CAC-c z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki MA-CAC-d z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -156,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CAC  0-1-80-160 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 CAC  0&amp;1&amp;80&amp;160 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CAC  0-1-80-160 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 CAC  0&amp;1&amp;80&amp;160 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -418,7 +1372,1690 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -957,6 +3594,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1292,6 +4034,642 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>0.9827</v>
+      </c>
+      <c r="B3" s="0">
+        <v>246.4905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9482</v>
+      </c>
+      <c r="B4" s="0">
+        <v>239.3566</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9012</v>
+      </c>
+      <c r="B5" s="0">
+        <v>236.8132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8504</v>
+      </c>
+      <c r="B6" s="0">
+        <v>235.7362</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7992</v>
+      </c>
+      <c r="B7" s="0">
+        <v>234.8505</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="0">
+        <v>234.4106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7008</v>
+      </c>
+      <c r="B9" s="0">
+        <v>233.907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6501</v>
+      </c>
+      <c r="B10" s="0">
+        <v>233.2761</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5983</v>
+      </c>
+      <c r="B11" s="0">
+        <v>232.8365</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5497</v>
+      </c>
+      <c r="B12" s="0">
+        <v>232.3966</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4995</v>
+      </c>
+      <c r="B13" s="0">
+        <v>231.7657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4503</v>
+      </c>
+      <c r="B14" s="0">
+        <v>231.1983</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4017</v>
+      </c>
+      <c r="B15" s="0">
+        <v>230.4397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3504</v>
+      </c>
+      <c r="B16" s="0">
+        <v>229.299</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3002</v>
+      </c>
+      <c r="B17" s="0">
+        <v>228.1582</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B18" s="0">
+        <v>226.6987</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1998</v>
+      </c>
+      <c r="B19" s="0">
+        <v>224.5381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1496</v>
+      </c>
+      <c r="B20" s="0">
+        <v>221.8676</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0994</v>
+      </c>
+      <c r="B21" s="0">
+        <v>217.4763</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0486</v>
+      </c>
+      <c r="B22" s="0">
+        <v>209.1335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0288</v>
+      </c>
+      <c r="B23" s="0">
+        <v>201.934</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B24" s="0">
+        <v>188.3609</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0063</v>
+      </c>
+      <c r="B25" s="0">
+        <v>181.478</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9843</v>
+      </c>
+      <c r="B3" s="0">
+        <v>287.4841</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9502</v>
+      </c>
+      <c r="B4" s="0">
+        <v>280.7497</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.902</v>
+      </c>
+      <c r="B5" s="0">
+        <v>277.7637</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8507</v>
+      </c>
+      <c r="B6" s="0">
+        <v>276.1118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7994</v>
+      </c>
+      <c r="B7" s="0">
+        <v>275.0953</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7491</v>
+      </c>
+      <c r="B8" s="0">
+        <v>274.5235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7009</v>
+      </c>
+      <c r="B9" s="0">
+        <v>274.0152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6491</v>
+      </c>
+      <c r="B10" s="0">
+        <v>273.1893</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5983</v>
+      </c>
+      <c r="B11" s="0">
+        <v>272.6811</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5495</v>
+      </c>
+      <c r="B12" s="0">
+        <v>271.8551</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B13" s="0">
+        <v>271.2198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B14" s="0">
+        <v>270.3304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B15" s="0">
+        <v>269.5044</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3509</v>
+      </c>
+      <c r="B16" s="0">
+        <v>268.4879</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3012</v>
+      </c>
+      <c r="B17" s="0">
+        <v>266.8996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2509</v>
+      </c>
+      <c r="B18" s="0">
+        <v>265.4384</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2011</v>
+      </c>
+      <c r="B19" s="0">
+        <v>262.9606</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1503</v>
+      </c>
+      <c r="B20" s="0">
+        <v>259.9746</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0995</v>
+      </c>
+      <c r="B21" s="0">
+        <v>255.4003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0482</v>
+      </c>
+      <c r="B22" s="0">
+        <v>245.7433</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0284</v>
+      </c>
+      <c r="B23" s="0">
+        <v>238.31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0107</v>
+      </c>
+      <c r="B24" s="0">
+        <v>223.4435</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0066</v>
+      </c>
+      <c r="B25" s="0">
+        <v>214.4219</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9844</v>
+      </c>
+      <c r="B3" s="0">
+        <v>287.5884</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9499</v>
+      </c>
+      <c r="B4" s="0">
+        <v>280.9585</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9018</v>
+      </c>
+      <c r="B5" s="0">
+        <v>277.9014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B6" s="0">
+        <v>276.5335</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7972</v>
+      </c>
+      <c r="B7" s="0">
+        <v>275.2955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.748</v>
+      </c>
+      <c r="B8" s="0">
+        <v>274.5776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6999</v>
+      </c>
+      <c r="B9" s="0">
+        <v>274.1196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6487</v>
+      </c>
+      <c r="B10" s="0">
+        <v>273.4665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5985</v>
+      </c>
+      <c r="B11" s="0">
+        <v>273.0084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5488</v>
+      </c>
+      <c r="B12" s="0">
+        <v>271.9656</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4981</v>
+      </c>
+      <c r="B13" s="0">
+        <v>271.1825</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4499</v>
+      </c>
+      <c r="B14" s="0">
+        <v>270.5946</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4008</v>
+      </c>
+      <c r="B15" s="0">
+        <v>269.6168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3501</v>
+      </c>
+      <c r="B16" s="0">
+        <v>268.5738</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3004</v>
+      </c>
+      <c r="B17" s="0">
+        <v>267.0761</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2502</v>
+      </c>
+      <c r="B18" s="0">
+        <v>265.4484</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B19" s="0">
+        <v>263.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1487</v>
+      </c>
+      <c r="B20" s="0">
+        <v>260.2437</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0991</v>
+      </c>
+      <c r="B21" s="0">
+        <v>255.4321</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0479</v>
+      </c>
+      <c r="B22" s="0">
+        <v>246.0071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.028</v>
+      </c>
+      <c r="B23" s="0">
+        <v>238.4684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B24" s="0">
+        <v>223.6525</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0052</v>
+      </c>
+      <c r="B25" s="0">
+        <v>214.4254</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>0.9833</v>
       </c>
       <c r="B3" s="0">

--- a/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 110 Microwave-assisted modification of activated/Data110_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 CAC  0&amp;1&amp;80&amp;160 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 CAC  0&amp;1&amp;80&amp;160 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_2 A-CAC-b  0&amp;1&amp;160&amp;260" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_3 M-CAC-c  0&amp;1&amp;200&amp;300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_4 MA-CAC-d  0&amp;1&amp;200&amp;30" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>A-CAC-b</t>
+    <t>CAC</t>
   </si>
   <si>
     <t>X</t>
@@ -26,13 +26,13 @@
     <t>Y</t>
   </si>
   <si>
+    <t>A-CAC-b</t>
+  </si>
+  <si>
     <t>M-CAC-c</t>
   </si>
   <si>
     <t>MA-CAC-d</t>
-  </si>
-  <si>
-    <t>CAC</t>
   </si>
 </sst>
 </file>
@@ -77,948 +77,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-CAC-b z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 A-CAC-b  0&amp;1&amp;160&amp;260 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="260"/>
-          <c:min val="160"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki M-CAC-c z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 M-CAC-c  0&amp;1&amp;200&amp;300 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki MA-CAC-d z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 MA-CAC-d  0&amp;1&amp;200&amp;300 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1332,6 +390,948 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki A-CAC-b z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 A-CAC-b  0&amp;1&amp;160&amp;260'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 A-CAC-b  0&amp;1&amp;160&amp;260'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki M-CAC-c z wykresu 'Figure 2_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_3 M-CAC-c  0&amp;1&amp;200&amp;300'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_3 M-CAC-c  0&amp;1&amp;200&amp;300'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki MA-CAC-d z wykresu 'Figure 2_4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_4 MA-CAC-d  0&amp;1&amp;200&amp;30'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_4 MA-CAC-d  0&amp;1&amp;200&amp;30'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4034,186 +4034,186 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9827</v>
+        <v>0.9833</v>
       </c>
       <c r="B3" s="0">
-        <v>246.4905</v>
+        <v>152.1667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9482</v>
+        <v>0.95</v>
       </c>
       <c r="B4" s="0">
-        <v>239.3566</v>
+        <v>146.0876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9012</v>
+        <v>0.9</v>
       </c>
       <c r="B5" s="0">
-        <v>236.8132</v>
+        <v>144.2371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8504</v>
+        <v>0.8479</v>
       </c>
       <c r="B6" s="0">
-        <v>235.7362</v>
+        <v>143.0054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7992</v>
+        <v>0.8</v>
       </c>
       <c r="B7" s="0">
-        <v>234.8505</v>
+        <v>142.3918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="B8" s="0">
-        <v>234.4106</v>
+        <v>141.8816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7008</v>
+        <v>0.7021</v>
       </c>
       <c r="B9" s="0">
-        <v>233.907</v>
+        <v>141.474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6501</v>
+        <v>0.651</v>
       </c>
       <c r="B10" s="0">
-        <v>233.2761</v>
+        <v>140.9638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5983</v>
+        <v>0.6021</v>
       </c>
       <c r="B11" s="0">
-        <v>232.8365</v>
+        <v>140.4534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5497</v>
+        <v>0.549</v>
       </c>
       <c r="B12" s="0">
-        <v>232.3966</v>
+        <v>139.9434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4995</v>
+        <v>0.501</v>
       </c>
       <c r="B13" s="0">
-        <v>231.7657</v>
+        <v>139.0205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4503</v>
+        <v>0.45</v>
       </c>
       <c r="B14" s="0">
-        <v>231.1983</v>
+        <v>138.201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4017</v>
+        <v>0.401</v>
       </c>
       <c r="B15" s="0">
-        <v>230.4397</v>
+        <v>137.0721</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3504</v>
+        <v>0.35</v>
       </c>
       <c r="B16" s="0">
-        <v>229.299</v>
+        <v>135.7371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3002</v>
+        <v>0.3</v>
       </c>
       <c r="B17" s="0">
-        <v>228.1582</v>
+        <v>133.9897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.25</v>
+        <v>0.2479</v>
       </c>
       <c r="B18" s="0">
-        <v>226.6987</v>
+        <v>131.6239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1998</v>
+        <v>0.199</v>
       </c>
       <c r="B19" s="0">
-        <v>224.5381</v>
+        <v>128.8455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1496</v>
+        <v>0.15</v>
       </c>
       <c r="B20" s="0">
-        <v>221.8676</v>
+        <v>124.5206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0994</v>
+        <v>0.099</v>
       </c>
       <c r="B21" s="0">
-        <v>217.4763</v>
+        <v>118.4434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0486</v>
+        <v>0.05</v>
       </c>
       <c r="B22" s="0">
-        <v>209.1335</v>
+        <v>109.1701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0288</v>
+        <v>0.0292</v>
       </c>
       <c r="B23" s="0">
-        <v>201.934</v>
+        <v>103.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0099</v>
+        <v>0.0094</v>
       </c>
       <c r="B24" s="0">
-        <v>188.3609</v>
+        <v>92.8856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0063</v>
+        <v>0.0073</v>
       </c>
       <c r="B25" s="0">
-        <v>181.478</v>
+        <v>87.7312</v>
       </c>
     </row>
     <row r="26"/>
@@ -4246,66 +4246,66 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9843</v>
+        <v>0.9827</v>
       </c>
       <c r="B3" s="0">
-        <v>287.4841</v>
+        <v>246.4905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9502</v>
+        <v>0.9482</v>
       </c>
       <c r="B4" s="0">
-        <v>280.7497</v>
+        <v>239.3566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.902</v>
+        <v>0.9012</v>
       </c>
       <c r="B5" s="0">
-        <v>277.7637</v>
+        <v>236.8132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8507</v>
+        <v>0.8504</v>
       </c>
       <c r="B6" s="0">
-        <v>276.1118</v>
+        <v>235.7362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7994</v>
+        <v>0.7992</v>
       </c>
       <c r="B7" s="0">
-        <v>275.0953</v>
+        <v>234.8505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7491</v>
+        <v>0.75</v>
       </c>
       <c r="B8" s="0">
-        <v>274.5235</v>
+        <v>234.4106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7009</v>
+        <v>0.7008</v>
       </c>
       <c r="B9" s="0">
-        <v>274.0152</v>
+        <v>233.907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6491</v>
+        <v>0.6501</v>
       </c>
       <c r="B10" s="0">
-        <v>273.1893</v>
+        <v>233.2761</v>
       </c>
     </row>
     <row r="11">
@@ -4313,119 +4313,119 @@
         <v>0.5983</v>
       </c>
       <c r="B11" s="0">
-        <v>272.6811</v>
+        <v>232.8365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5495</v>
+        <v>0.5497</v>
       </c>
       <c r="B12" s="0">
-        <v>271.8551</v>
+        <v>232.3966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4982</v>
+        <v>0.4995</v>
       </c>
       <c r="B13" s="0">
-        <v>271.2198</v>
+        <v>231.7657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.45</v>
+        <v>0.4503</v>
       </c>
       <c r="B14" s="0">
-        <v>270.3304</v>
+        <v>231.1983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4012</v>
+        <v>0.4017</v>
       </c>
       <c r="B15" s="0">
-        <v>269.5044</v>
+        <v>230.4397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3509</v>
+        <v>0.3504</v>
       </c>
       <c r="B16" s="0">
-        <v>268.4879</v>
+        <v>229.299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3012</v>
+        <v>0.3002</v>
       </c>
       <c r="B17" s="0">
-        <v>266.8996</v>
+        <v>228.1582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2509</v>
+        <v>0.25</v>
       </c>
       <c r="B18" s="0">
-        <v>265.4384</v>
+        <v>226.6987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2011</v>
+        <v>0.1998</v>
       </c>
       <c r="B19" s="0">
-        <v>262.9606</v>
+        <v>224.5381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1503</v>
+        <v>0.1496</v>
       </c>
       <c r="B20" s="0">
-        <v>259.9746</v>
+        <v>221.8676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0995</v>
+        <v>0.0994</v>
       </c>
       <c r="B21" s="0">
-        <v>255.4003</v>
+        <v>217.4763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0482</v>
+        <v>0.0486</v>
       </c>
       <c r="B22" s="0">
-        <v>245.7433</v>
+        <v>209.1335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0284</v>
+        <v>0.0288</v>
       </c>
       <c r="B23" s="0">
-        <v>238.31</v>
+        <v>201.934</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0107</v>
+        <v>0.0099</v>
       </c>
       <c r="B24" s="0">
-        <v>223.4435</v>
+        <v>188.3609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0066</v>
+        <v>0.0063</v>
       </c>
       <c r="B25" s="0">
-        <v>214.4219</v>
+        <v>181.478</v>
       </c>
     </row>
     <row r="26"/>
@@ -4458,186 +4458,186 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9844</v>
+        <v>0.9843</v>
       </c>
       <c r="B3" s="0">
-        <v>287.5884</v>
+        <v>287.4841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9499</v>
+        <v>0.9502</v>
       </c>
       <c r="B4" s="0">
-        <v>280.9585</v>
+        <v>280.7497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9018</v>
+        <v>0.902</v>
       </c>
       <c r="B5" s="0">
-        <v>277.9014</v>
+        <v>277.7637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.85</v>
+        <v>0.8507</v>
       </c>
       <c r="B6" s="0">
-        <v>276.5335</v>
+        <v>276.1118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7972</v>
+        <v>0.7994</v>
       </c>
       <c r="B7" s="0">
-        <v>275.2955</v>
+        <v>275.0953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.748</v>
+        <v>0.7491</v>
       </c>
       <c r="B8" s="0">
-        <v>274.5776</v>
+        <v>274.5235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6999</v>
+        <v>0.7009</v>
       </c>
       <c r="B9" s="0">
-        <v>274.1196</v>
+        <v>274.0152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6487</v>
+        <v>0.6491</v>
       </c>
       <c r="B10" s="0">
-        <v>273.4665</v>
+        <v>273.1893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5985</v>
+        <v>0.5983</v>
       </c>
       <c r="B11" s="0">
-        <v>273.0084</v>
+        <v>272.6811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5488</v>
+        <v>0.5495</v>
       </c>
       <c r="B12" s="0">
-        <v>271.9656</v>
+        <v>271.8551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4981</v>
+        <v>0.4982</v>
       </c>
       <c r="B13" s="0">
-        <v>271.1825</v>
+        <v>271.2198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4499</v>
+        <v>0.45</v>
       </c>
       <c r="B14" s="0">
-        <v>270.5946</v>
+        <v>270.3304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4008</v>
+        <v>0.4012</v>
       </c>
       <c r="B15" s="0">
-        <v>269.6168</v>
+        <v>269.5044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3501</v>
+        <v>0.3509</v>
       </c>
       <c r="B16" s="0">
-        <v>268.5738</v>
+        <v>268.4879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3004</v>
+        <v>0.3012</v>
       </c>
       <c r="B17" s="0">
-        <v>267.0761</v>
+        <v>266.8996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2502</v>
+        <v>0.2509</v>
       </c>
       <c r="B18" s="0">
-        <v>265.4484</v>
+        <v>265.4384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2</v>
+        <v>0.2011</v>
       </c>
       <c r="B19" s="0">
-        <v>263.171</v>
+        <v>262.9606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1487</v>
+        <v>0.1503</v>
       </c>
       <c r="B20" s="0">
-        <v>260.2437</v>
+        <v>259.9746</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0991</v>
+        <v>0.0995</v>
       </c>
       <c r="B21" s="0">
-        <v>255.4321</v>
+        <v>255.4003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0479</v>
+        <v>0.0482</v>
       </c>
       <c r="B22" s="0">
-        <v>246.0071</v>
+        <v>245.7433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.028</v>
+        <v>0.0284</v>
       </c>
       <c r="B23" s="0">
-        <v>238.4684</v>
+        <v>238.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0103</v>
+        <v>0.0107</v>
       </c>
       <c r="B24" s="0">
-        <v>223.6525</v>
+        <v>223.4435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0052</v>
+        <v>0.0066</v>
       </c>
       <c r="B25" s="0">
-        <v>214.4254</v>
+        <v>214.4219</v>
       </c>
     </row>
     <row r="26"/>
@@ -4670,186 +4670,186 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9833</v>
+        <v>0.9844</v>
       </c>
       <c r="B3" s="0">
-        <v>152.1667</v>
+        <v>287.5884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95</v>
+        <v>0.9499</v>
       </c>
       <c r="B4" s="0">
-        <v>146.0876</v>
+        <v>280.9585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9</v>
+        <v>0.9018</v>
       </c>
       <c r="B5" s="0">
-        <v>144.2371</v>
+        <v>277.9014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8479</v>
+        <v>0.85</v>
       </c>
       <c r="B6" s="0">
-        <v>143.0054</v>
+        <v>276.5335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8</v>
+        <v>0.7972</v>
       </c>
       <c r="B7" s="0">
-        <v>142.3918</v>
+        <v>275.2955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="B8" s="0">
-        <v>141.8816</v>
+        <v>274.5776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7021</v>
+        <v>0.6999</v>
       </c>
       <c r="B9" s="0">
-        <v>141.474</v>
+        <v>274.1196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.651</v>
+        <v>0.6487</v>
       </c>
       <c r="B10" s="0">
-        <v>140.9638</v>
+        <v>273.4665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6021</v>
+        <v>0.5985</v>
       </c>
       <c r="B11" s="0">
-        <v>140.4534</v>
+        <v>273.0084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.549</v>
+        <v>0.5488</v>
       </c>
       <c r="B12" s="0">
-        <v>139.9434</v>
+        <v>271.9656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.501</v>
+        <v>0.4981</v>
       </c>
       <c r="B13" s="0">
-        <v>139.0205</v>
+        <v>271.1825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.45</v>
+        <v>0.4499</v>
       </c>
       <c r="B14" s="0">
-        <v>138.201</v>
+        <v>270.5946</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.401</v>
+        <v>0.4008</v>
       </c>
       <c r="B15" s="0">
-        <v>137.0721</v>
+        <v>269.6168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.35</v>
+        <v>0.3501</v>
       </c>
       <c r="B16" s="0">
-        <v>135.7371</v>
+        <v>268.5738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3004</v>
       </c>
       <c r="B17" s="0">
-        <v>133.9897</v>
+        <v>267.0761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2479</v>
+        <v>0.2502</v>
       </c>
       <c r="B18" s="0">
-        <v>131.6239</v>
+        <v>265.4484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="B19" s="0">
-        <v>128.8455</v>
+        <v>263.171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.15</v>
+        <v>0.1487</v>
       </c>
       <c r="B20" s="0">
-        <v>124.5206</v>
+        <v>260.2437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.099</v>
+        <v>0.0991</v>
       </c>
       <c r="B21" s="0">
-        <v>118.4434</v>
+        <v>255.4321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.05</v>
+        <v>0.0479</v>
       </c>
       <c r="B22" s="0">
-        <v>109.1701</v>
+        <v>246.0071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0292</v>
+        <v>0.028</v>
       </c>
       <c r="B23" s="0">
-        <v>103.296</v>
+        <v>238.4684</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0094</v>
+        <v>0.0103</v>
       </c>
       <c r="B24" s="0">
-        <v>92.8856</v>
+        <v>223.6525</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0073</v>
+        <v>0.0052</v>
       </c>
       <c r="B25" s="0">
-        <v>87.7312</v>
+        <v>214.4254</v>
       </c>
     </row>
     <row r="26"/>
